--- a/Livre 1.xlsx
+++ b/Livre 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27316"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{483C2435-F49C-43C7-BC22-A0F34C421298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC018EBE-09F0-4485-A2CE-5BCBB9D2E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Nom de la table</t>
   </si>
@@ -57,6 +57,9 @@
     <t>Numerique</t>
   </si>
   <si>
+    <t xml:space="preserve">non null </t>
+  </si>
+  <si>
     <t>identifiant du département</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
   </si>
   <si>
     <t>Booléen</t>
+  </si>
+  <si>
+    <t>true ou false</t>
   </si>
   <si>
     <t>chef de departement ou non</t>
@@ -753,7 +759,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,9 +799,11 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -803,394 +811,403 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
